--- a/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
+++ b/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -481,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13944" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13996" uniqueCount="2204">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -6922,6 +6923,9 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granjon2009rongeurs</t>
   </si>
   <si>
     <t xml:space="preserve">Kronmann KC, Nimo-Paintsil S, Guirguis F, Kronmann LC, Bonney K, Obiri-Danso K, Ampofo W, Fichet-Calvet E. Two novel arenaviruses detected in pygmy mice, Ghana. Emerging infectious diseases. 2013 Nov;19(11):1832.</t>
@@ -7452,7 +7456,7 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7887,7 +7891,7 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A698" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A698" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F518" activeCellId="0" sqref="F518"/>
     </sheetView>
   </sheetViews>
@@ -28494,8 +28498,8 @@
   </sheetPr>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K135" activeCellId="0" sqref="K135"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K120" activeCellId="0" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29551,6 +29555,9 @@
       <c r="G28" s="4" t="s">
         <v>2146</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I28" s="25" t="s">
         <v>1392</v>
       </c>
@@ -29586,6 +29593,9 @@
       <c r="G29" s="4" t="s">
         <v>2146</v>
       </c>
+      <c r="H29" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I29" s="25" t="s">
         <v>1395</v>
       </c>
@@ -29621,7 +29631,9 @@
       <c r="G30" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I30" s="25" t="s">
         <v>1398</v>
       </c>
@@ -29657,7 +29669,9 @@
       <c r="G31" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I31" s="25" t="s">
         <v>1401</v>
       </c>
@@ -29693,7 +29707,9 @@
       <c r="G32" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I32" s="25" t="s">
         <v>1404</v>
       </c>
@@ -29729,6 +29745,9 @@
       <c r="G33" s="4" t="s">
         <v>2146</v>
       </c>
+      <c r="H33" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I33" s="24" t="s">
         <v>1407</v>
       </c>
@@ -29764,7 +29783,9 @@
       <c r="G34" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I34" s="24" t="s">
         <v>1410</v>
       </c>
@@ -29800,7 +29821,9 @@
       <c r="G35" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I35" s="24" t="s">
         <v>1413</v>
       </c>
@@ -29836,7 +29859,9 @@
       <c r="G36" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I36" s="24" t="s">
         <v>1416</v>
       </c>
@@ -29872,6 +29897,9 @@
       <c r="G37" s="4" t="s">
         <v>2146</v>
       </c>
+      <c r="H37" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I37" s="24" t="s">
         <v>1419</v>
       </c>
@@ -29907,7 +29935,9 @@
       <c r="G38" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I38" s="24" t="s">
         <v>1422</v>
       </c>
@@ -29943,7 +29973,9 @@
       <c r="G39" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I39" s="24" t="s">
         <v>1425</v>
       </c>
@@ -29979,7 +30011,9 @@
       <c r="G40" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I40" s="24" t="s">
         <v>1428</v>
       </c>
@@ -30015,7 +30049,9 @@
       <c r="G41" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I41" s="24" t="s">
         <v>1431</v>
       </c>
@@ -30051,7 +30087,9 @@
       <c r="G42" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I42" s="24" t="s">
         <v>1434</v>
       </c>
@@ -30087,7 +30125,9 @@
       <c r="G43" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I43" s="24" t="s">
         <v>1437</v>
       </c>
@@ -30123,7 +30163,9 @@
       <c r="G44" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I44" s="24" t="s">
         <v>1439</v>
       </c>
@@ -30159,7 +30201,9 @@
       <c r="G45" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I45" s="24" t="s">
         <v>1441</v>
       </c>
@@ -30195,7 +30239,9 @@
       <c r="G46" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I46" s="24" t="s">
         <v>1444</v>
       </c>
@@ -30231,7 +30277,9 @@
       <c r="G47" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I47" s="24" t="s">
         <v>1447</v>
       </c>
@@ -30267,7 +30315,9 @@
       <c r="G48" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I48" s="24" t="s">
         <v>1456</v>
       </c>
@@ -30303,7 +30353,9 @@
       <c r="G49" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I49" s="24" t="s">
         <v>1462</v>
       </c>
@@ -30339,7 +30391,9 @@
       <c r="G50" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I50" s="24" t="s">
         <v>1378</v>
       </c>
@@ -30375,7 +30429,9 @@
       <c r="G51" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I51" s="24" t="s">
         <v>1467</v>
       </c>
@@ -30411,7 +30467,9 @@
       <c r="G52" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I52" s="24" t="s">
         <v>1215</v>
       </c>
@@ -30447,7 +30505,9 @@
       <c r="G53" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I53" s="24" t="s">
         <v>1218</v>
       </c>
@@ -30483,7 +30543,9 @@
       <c r="G54" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I54" s="24" t="s">
         <v>1434</v>
       </c>
@@ -30519,7 +30581,9 @@
       <c r="G55" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I55" s="24" t="s">
         <v>1477</v>
       </c>
@@ -30555,7 +30619,9 @@
       <c r="G56" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I56" s="24" t="s">
         <v>1480</v>
       </c>
@@ -30591,7 +30657,9 @@
       <c r="G57" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I57" s="24" t="s">
         <v>1483</v>
       </c>
@@ -30627,7 +30695,9 @@
       <c r="G58" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I58" s="24" t="s">
         <v>1486</v>
       </c>
@@ -30663,7 +30733,9 @@
       <c r="G59" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I59" s="24" t="s">
         <v>1488</v>
       </c>
@@ -30699,7 +30771,9 @@
       <c r="G60" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I60" s="24" t="s">
         <v>1491</v>
       </c>
@@ -30735,7 +30809,9 @@
       <c r="G61" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I61" s="24" t="s">
         <v>1494</v>
       </c>
@@ -30771,7 +30847,9 @@
       <c r="G62" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I62" s="24" t="s">
         <v>1197</v>
       </c>
@@ -30807,7 +30885,9 @@
       <c r="G63" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I63" s="24" t="s">
         <v>1462</v>
       </c>
@@ -30843,7 +30923,9 @@
       <c r="G64" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I64" s="24" t="s">
         <v>1501</v>
       </c>
@@ -30879,7 +30961,9 @@
       <c r="G65" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I65" s="24" t="s">
         <v>1504</v>
       </c>
@@ -30915,7 +30999,9 @@
       <c r="G66" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I66" s="24" t="s">
         <v>1507</v>
       </c>
@@ -30951,7 +31037,9 @@
       <c r="G67" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I67" s="24" t="s">
         <v>1510</v>
       </c>
@@ -30987,7 +31075,9 @@
       <c r="G68" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I68" s="24" t="s">
         <v>1513</v>
       </c>
@@ -31023,7 +31113,9 @@
       <c r="G69" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I69" s="24" t="s">
         <v>1515</v>
       </c>
@@ -31059,7 +31151,9 @@
       <c r="G70" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I70" s="24" t="s">
         <v>108</v>
       </c>
@@ -31095,7 +31189,9 @@
       <c r="G71" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I71" s="24" t="s">
         <v>1520</v>
       </c>
@@ -31131,7 +31227,9 @@
       <c r="G72" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I72" s="24" t="s">
         <v>1419</v>
       </c>
@@ -31167,7 +31265,9 @@
       <c r="G73" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I73" s="24" t="s">
         <v>1525</v>
       </c>
@@ -31203,7 +31303,9 @@
       <c r="G74" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I74" s="24" t="s">
         <v>1528</v>
       </c>
@@ -31239,7 +31341,9 @@
       <c r="G75" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I75" s="24" t="s">
         <v>1531</v>
       </c>
@@ -31275,7 +31379,9 @@
       <c r="G76" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I76" s="24" t="s">
         <v>1534</v>
       </c>
@@ -31311,7 +31417,9 @@
       <c r="G77" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I77" s="24" t="s">
         <v>1207</v>
       </c>
@@ -31347,7 +31455,9 @@
       <c r="G78" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I78" s="24" t="s">
         <v>1207</v>
       </c>
@@ -31383,7 +31493,9 @@
       <c r="G79" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="0" t="s">
+        <v>2147</v>
+      </c>
       <c r="I79" s="24" t="s">
         <v>1542</v>
       </c>
@@ -31414,13 +31526,13 @@
         <v>1626</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I80" s="20" t="n">
         <v>10.25816667</v>
@@ -31452,13 +31564,13 @@
         <v>1626</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I81" s="20" t="n">
         <v>9.547</v>
@@ -31490,13 +31602,13 @@
         <v>1626</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I82" s="20" t="n">
         <v>10.395</v>
@@ -31528,13 +31640,13 @@
         <v>1626</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I83" s="20" t="n">
         <v>8.347166667</v>
@@ -31566,13 +31678,13 @@
         <v>1626</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I84" s="20" t="n">
         <v>7.122666667</v>
@@ -31604,13 +31716,13 @@
         <v>1626</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I85" s="20" t="n">
         <v>10.61933333</v>
@@ -31642,13 +31754,13 @@
         <v>1626</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I86" s="20" t="n">
         <v>7.9685</v>
@@ -31680,13 +31792,13 @@
         <v>1626</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I87" s="20" t="n">
         <v>7.674166667</v>
@@ -31718,13 +31830,13 @@
         <v>1626</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I88" s="20" t="n">
         <v>6.4495</v>
@@ -31756,13 +31868,13 @@
         <v>1648</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I89" s="24" t="s">
         <v>1652</v>
@@ -31794,13 +31906,13 @@
         <v>1648</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>1513</v>
@@ -31832,13 +31944,13 @@
         <v>1648</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I91" s="24" t="s">
         <v>1657</v>
@@ -31870,13 +31982,13 @@
         <v>1648</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>1207</v>
@@ -31908,13 +32020,13 @@
         <v>1648</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I93" s="24" t="s">
         <v>1661</v>
@@ -31946,13 +32058,13 @@
         <v>1677</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I94" s="24" t="s">
         <v>1678</v>
@@ -31984,13 +32096,13 @@
         <v>1677</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I95" s="24" t="s">
         <v>1681</v>
@@ -32022,13 +32134,13 @@
         <v>1677</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I96" s="24" t="s">
         <v>1684</v>
@@ -32060,13 +32172,13 @@
         <v>1677</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I97" s="24" t="s">
         <v>1687</v>
@@ -32098,13 +32210,13 @@
         <v>1677</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I98" s="24" t="s">
         <v>1691</v>
@@ -32136,13 +32248,13 @@
         <v>1677</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I99" s="24" t="s">
         <v>1695</v>
@@ -32174,13 +32286,13 @@
         <v>1677</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I100" s="24" t="s">
         <v>1698</v>
@@ -32212,13 +32324,13 @@
         <v>1677</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I101" s="24" t="s">
         <v>154</v>
@@ -32250,13 +32362,13 @@
         <v>1677</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I102" s="24" t="s">
         <v>1703</v>
@@ -32288,13 +32400,13 @@
         <v>1677</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I103" s="24" t="s">
         <v>1707</v>
@@ -32326,13 +32438,13 @@
         <v>1677</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I104" s="24" t="s">
         <v>1710</v>
@@ -32358,19 +32470,19 @@
         <v>1754</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I105" s="0" t="n">
         <v>8.22</v>
@@ -32396,19 +32508,19 @@
         <v>1759</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I106" s="0" t="n">
         <v>8.17</v>
@@ -32434,19 +32546,19 @@
         <v>1762</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I107" s="0" t="n">
         <v>8.22</v>
@@ -32472,19 +32584,19 @@
         <v>1764</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>8.2</v>
@@ -32510,19 +32622,19 @@
         <v>1766</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>8.23</v>
@@ -32548,19 +32660,19 @@
         <v>1768</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>8.22</v>
@@ -32586,19 +32698,19 @@
         <v>1770</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>9.1</v>
@@ -32624,19 +32736,19 @@
         <v>1772</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>8</v>
@@ -32662,19 +32774,19 @@
         <v>1773</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>8.1</v>
@@ -32700,19 +32812,19 @@
         <v>1776</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>8.22</v>
@@ -32744,13 +32856,13 @@
         <v>1954</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I115" s="20" t="n">
         <v>7.5439</v>
@@ -32782,13 +32894,13 @@
         <v>1954</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I116" s="20" t="n">
         <v>7.6906</v>
@@ -32820,13 +32932,13 @@
         <v>1954</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I117" s="20" t="n">
         <v>7.7013</v>
@@ -32858,13 +32970,13 @@
         <v>1954</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I118" s="20" t="n">
         <v>6.773</v>
@@ -32896,13 +33008,13 @@
         <v>1954</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I119" s="20" t="n">
         <v>6.7414</v>
@@ -32934,13 +33046,13 @@
         <v>1954</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I120" s="20" t="n">
         <v>7.641</v>
@@ -32972,13 +33084,13 @@
         <v>1954</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I121" s="20" t="n">
         <v>8.8242</v>
@@ -33010,13 +33122,13 @@
         <v>1954</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I122" s="20" t="n">
         <v>7.0919</v>
@@ -33048,13 +33160,13 @@
         <v>1967</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I123" s="24" t="s">
         <v>1968</v>
@@ -33086,13 +33198,13 @@
         <v>1967</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I124" s="24" t="s">
         <v>1971</v>
@@ -33124,13 +33236,13 @@
         <v>1967</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I125" s="24" t="s">
         <v>1974</v>
@@ -33162,13 +33274,13 @@
         <v>1967</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I126" s="24" t="s">
         <v>1977</v>
@@ -33200,13 +33312,13 @@
         <v>1967</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I127" s="24" t="s">
         <v>1765</v>
@@ -33238,13 +33350,13 @@
         <v>1967</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I128" s="24" t="s">
         <v>1981</v>
@@ -33276,13 +33388,13 @@
         <v>1967</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I129" s="24" t="s">
         <v>1984</v>
@@ -33314,13 +33426,13 @@
         <v>1967</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I130" s="24" t="s">
         <v>1987</v>
@@ -33352,13 +33464,13 @@
         <v>1967</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I131" s="24" t="s">
         <v>1774</v>
@@ -33390,13 +33502,13 @@
         <v>1967</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I132" s="24" t="s">
         <v>1992</v>
@@ -33428,13 +33540,13 @@
         <v>1967</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I133" s="24" t="s">
         <v>1614</v>
@@ -33466,13 +33578,13 @@
         <v>1967</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I134" s="24" t="s">
         <v>1996</v>
@@ -33504,13 +33616,13 @@
         <v>1967</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I135" s="24" t="s">
         <v>1999</v>
@@ -33542,13 +33654,13 @@
         <v>1967</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I136" s="24" t="s">
         <v>1614</v>
@@ -33580,13 +33692,13 @@
         <v>2119</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>8.883947222</v>
@@ -33618,13 +33730,13 @@
         <v>2119</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>8.973844444</v>
@@ -33656,13 +33768,13 @@
         <v>1939</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I139" s="24" t="s">
         <v>1940</v>
@@ -33694,13 +33806,13 @@
         <v>1939</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I140" s="24" t="s">
         <v>1943</v>
@@ -33732,13 +33844,13 @@
         <v>1939</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I141" s="24" t="s">
         <v>1945</v>
@@ -33770,13 +33882,13 @@
         <v>1939</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I142" s="24" t="s">
         <v>1948</v>
@@ -33808,13 +33920,13 @@
         <v>1939</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I143" s="24" t="s">
         <v>1535</v>
@@ -33847,7 +33959,7 @@
   </sheetPr>
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="O143" activeCellId="0" sqref="O143"/>
@@ -33878,7 +33990,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2124</v>
@@ -33887,16 +33999,16 @@
         <v>2125</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>2126</v>
@@ -34327,7 +34439,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>10.06611111</v>
@@ -34368,7 +34480,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M13" s="20" t="n">
         <v>14.0901</v>
@@ -34415,7 +34527,7 @@
         <v>2088</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>6.128333333</v>
@@ -34462,7 +34574,7 @@
         <v>2088</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>6.794166667</v>
@@ -34509,7 +34621,7 @@
         <v>2088</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>5.809166667</v>
@@ -34595,7 +34707,7 @@
         <v>2088</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>6.184166667</v>
@@ -34642,7 +34754,7 @@
         <v>2088</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>8.171388889</v>
@@ -34806,7 +34918,7 @@
         <v>2088</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M23" s="24" t="s">
         <v>1359</v>
@@ -34853,7 +34965,7 @@
         <v>2088</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M24" s="24" t="s">
         <v>1362</v>
@@ -35014,7 +35126,7 @@
         <v>2088</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M28" s="25" t="s">
         <v>1392</v>
@@ -35058,7 +35170,7 @@
         <v>2088</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M29" s="25" t="s">
         <v>1395</v>
@@ -35213,7 +35325,7 @@
         <v>2088</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M33" s="24" t="s">
         <v>1407</v>
@@ -35368,7 +35480,7 @@
         <v>2088</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M37" s="24" t="s">
         <v>1419</v>
@@ -35783,7 +35895,7 @@
         <v>2088</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M48" s="24" t="s">
         <v>1456</v>
@@ -35828,7 +35940,7 @@
         <v>2088</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M49" s="24" t="s">
         <v>1462</v>
@@ -35984,7 +36096,7 @@
         <v>2088</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M53" s="24" t="s">
         <v>1218</v>
@@ -36103,7 +36215,7 @@
         <v>2088</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M56" s="24" t="s">
         <v>1480</v>
@@ -36222,7 +36334,7 @@
         <v>2088</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M59" s="24" t="s">
         <v>1488</v>
@@ -36711,7 +36823,7 @@
         <v>2088</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M72" s="24" t="s">
         <v>1419</v>
@@ -36756,7 +36868,7 @@
         <v>2088</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="M73" s="24" t="s">
         <v>1525</v>
@@ -36801,7 +36913,7 @@
         <v>2088</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M74" s="24" t="s">
         <v>1528</v>
@@ -36957,7 +37069,7 @@
         <v>2088</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M78" s="24" t="s">
         <v>1207</v>
@@ -37023,13 +37135,13 @@
         <v>1626</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -37062,13 +37174,13 @@
         <v>1626</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -37101,13 +37213,13 @@
         <v>1626</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -37140,13 +37252,13 @@
         <v>1626</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -37179,13 +37291,13 @@
         <v>1626</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -37218,13 +37330,13 @@
         <v>1626</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -37257,13 +37369,13 @@
         <v>1626</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -37296,13 +37408,13 @@
         <v>1626</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -37335,13 +37447,13 @@
         <v>1626</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -37374,13 +37486,13 @@
         <v>1648</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>2086</v>
@@ -37392,7 +37504,7 @@
         <v>2088</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M89" s="24" t="s">
         <v>1652</v>
@@ -37421,13 +37533,13 @@
         <v>1648</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -37460,13 +37572,13 @@
         <v>1648</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -37499,13 +37611,13 @@
         <v>1648</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>2086</v>
@@ -37517,7 +37629,7 @@
         <v>2088</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M92" s="24" t="s">
         <v>1207</v>
@@ -37546,13 +37658,13 @@
         <v>1648</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>2086</v>
@@ -37564,7 +37676,7 @@
         <v>2088</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M93" s="24" t="s">
         <v>1661</v>
@@ -37593,13 +37705,13 @@
         <v>1677</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -37632,13 +37744,13 @@
         <v>1677</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>2086</v>
@@ -37650,7 +37762,7 @@
         <v>2088</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M95" s="24" t="s">
         <v>1681</v>
@@ -37679,13 +37791,13 @@
         <v>1677</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>2086</v>
@@ -37697,7 +37809,7 @@
         <v>2088</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M96" s="24" t="s">
         <v>1684</v>
@@ -37726,13 +37838,13 @@
         <v>1677</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>2086</v>
@@ -37744,7 +37856,7 @@
         <v>2088</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M97" s="24" t="s">
         <v>1687</v>
@@ -37773,13 +37885,13 @@
         <v>1677</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>2086</v>
@@ -37791,7 +37903,7 @@
         <v>2088</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M98" s="24" t="s">
         <v>1691</v>
@@ -37820,13 +37932,13 @@
         <v>1677</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>2086</v>
@@ -37838,7 +37950,7 @@
         <v>2088</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M99" s="24" t="s">
         <v>1695</v>
@@ -37867,13 +37979,13 @@
         <v>1677</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>2086</v>
@@ -37885,7 +37997,7 @@
         <v>2088</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M100" s="24" t="s">
         <v>1698</v>
@@ -37914,13 +38026,13 @@
         <v>1677</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>2086</v>
@@ -37932,7 +38044,7 @@
         <v>2088</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M101" s="24" t="s">
         <v>154</v>
@@ -37961,13 +38073,13 @@
         <v>1677</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>2086</v>
@@ -37979,7 +38091,7 @@
         <v>2088</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M102" s="24" t="s">
         <v>1703</v>
@@ -38008,13 +38120,13 @@
         <v>1677</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>2086</v>
@@ -38026,7 +38138,7 @@
         <v>2088</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M103" s="24" t="s">
         <v>1707</v>
@@ -38055,13 +38167,13 @@
         <v>1677</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>2086</v>
@@ -38073,7 +38185,7 @@
         <v>2088</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M104" s="24" t="s">
         <v>1710</v>
@@ -38096,19 +38208,19 @@
         <v>1754</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>8.22</v>
@@ -38131,19 +38243,19 @@
         <v>1759</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>8.17</v>
@@ -38166,19 +38278,19 @@
         <v>1762</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>8.22</v>
@@ -38201,19 +38313,19 @@
         <v>1764</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>8.2</v>
@@ -38236,19 +38348,19 @@
         <v>1766</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>8.23</v>
@@ -38271,19 +38383,19 @@
         <v>1768</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M110" s="0" t="n">
         <v>8.22</v>
@@ -38306,19 +38418,19 @@
         <v>1770</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>9.1</v>
@@ -38341,19 +38453,19 @@
         <v>1772</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M112" s="0" t="n">
         <v>8</v>
@@ -38376,19 +38488,19 @@
         <v>1773</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>8.1</v>
@@ -38411,19 +38523,19 @@
         <v>1776</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M114" s="0" t="n">
         <v>8.22</v>
@@ -38452,13 +38564,13 @@
         <v>1954</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -38491,13 +38603,13 @@
         <v>1954</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -38530,13 +38642,13 @@
         <v>1954</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -38569,13 +38681,13 @@
         <v>1954</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -38608,13 +38720,13 @@
         <v>1954</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -38647,13 +38759,13 @@
         <v>1954</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -38686,13 +38798,13 @@
         <v>1954</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -38725,13 +38837,13 @@
         <v>1954</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -38764,13 +38876,13 @@
         <v>1967</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -38803,13 +38915,13 @@
         <v>1967</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -38842,13 +38954,13 @@
         <v>1967</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -38881,13 +38993,13 @@
         <v>1967</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -38920,13 +39032,13 @@
         <v>1967</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -38959,13 +39071,13 @@
         <v>1967</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -38998,13 +39110,13 @@
         <v>1967</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -39037,13 +39149,13 @@
         <v>1967</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -39076,13 +39188,13 @@
         <v>1967</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -39115,13 +39227,13 @@
         <v>1967</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -39154,13 +39266,13 @@
         <v>1967</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -39193,13 +39305,13 @@
         <v>1967</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -39232,13 +39344,13 @@
         <v>1967</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -39271,13 +39383,13 @@
         <v>1967</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -39310,13 +39422,13 @@
         <v>2119</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -39349,13 +39461,13 @@
         <v>2119</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -39388,13 +39500,13 @@
         <v>1939</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -39427,13 +39539,13 @@
         <v>1939</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -39466,13 +39578,13 @@
         <v>1939</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -39505,13 +39617,13 @@
         <v>1939</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -39544,13 +39656,13 @@
         <v>1939</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -39584,7 +39696,7 @@
   </sheetPr>
   <dimension ref="A1:W199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S199" activeCellId="0" sqref="S199"/>
     </sheetView>
   </sheetViews>
@@ -39611,7 +39723,7 @@
         <v>43</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2124</v>
@@ -39632,25 +39744,25 @@
         <v>2129</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39692,7 +39804,7 @@
         <v>2089</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="28"/>
@@ -39736,7 +39848,7 @@
         <v>2089</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="28"/>
@@ -39780,7 +39892,7 @@
         <v>2089</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="28"/>
@@ -39824,7 +39936,7 @@
         <v>2089</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="28"/>
@@ -39868,7 +39980,7 @@
         <v>2089</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="28"/>
@@ -39912,7 +40024,7 @@
         <v>2089</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="28"/>
@@ -39956,7 +40068,7 @@
         <v>2089</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="28"/>
@@ -40000,7 +40112,7 @@
         <v>2089</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="28"/>
@@ -40044,7 +40156,7 @@
         <v>2089</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="28"/>
@@ -40088,7 +40200,7 @@
         <v>2089</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="28"/>
@@ -40131,20 +40243,20 @@
         <v>2089</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40185,22 +40297,22 @@
         <v>2089</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40241,22 +40353,22 @@
         <v>2089</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40297,16 +40409,16 @@
         <v>2089</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>6.98</v>
@@ -40318,7 +40430,7 @@
         <v>2001</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40359,16 +40471,16 @@
         <v>2089</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>7.1</v>
@@ -40380,7 +40492,7 @@
         <v>2004</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40421,16 +40533,16 @@
         <v>2089</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>13.13</v>
@@ -40442,7 +40554,7 @@
         <v>2005</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40483,16 +40595,16 @@
         <v>2089</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>14.63</v>
@@ -40504,7 +40616,7 @@
         <v>2004</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40546,7 +40658,7 @@
         <v>2089</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="28"/>
@@ -40590,7 +40702,7 @@
         <v>2089</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="28"/>
@@ -40634,7 +40746,7 @@
         <v>2089</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="28"/>
@@ -40678,7 +40790,7 @@
         <v>2089</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="28"/>
@@ -40722,19 +40834,19 @@
         <v>2089</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40776,7 +40888,7 @@
         <v>2089</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="28"/>
@@ -40820,7 +40932,7 @@
         <v>2089</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="28"/>
@@ -40864,7 +40976,7 @@
         <v>2089</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="28"/>
@@ -40908,7 +41020,7 @@
         <v>2089</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="28"/>
@@ -40952,7 +41064,7 @@
         <v>2089</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="28"/>
@@ -40996,7 +41108,7 @@
         <v>2089</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="28"/>
@@ -41039,7 +41151,7 @@
         <v>2089</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="28"/>
@@ -41082,7 +41194,7 @@
         <v>2089</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="28"/>
@@ -41125,7 +41237,7 @@
         <v>2089</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="28"/>
@@ -41168,7 +41280,7 @@
         <v>2089</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="28"/>
@@ -41211,7 +41323,7 @@
         <v>2089</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="28"/>
@@ -41254,7 +41366,7 @@
         <v>2089</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="28"/>
@@ -41297,7 +41409,7 @@
         <v>2089</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="28"/>
@@ -41340,7 +41452,7 @@
         <v>2089</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="28"/>
@@ -41348,7 +41460,7 @@
         <v>1999</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41389,7 +41501,7 @@
         <v>2089</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="28"/>
@@ -41432,7 +41544,7 @@
         <v>2089</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="28"/>
@@ -41475,7 +41587,7 @@
         <v>2089</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="28"/>
@@ -41518,7 +41630,7 @@
         <v>2089</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="28"/>
@@ -41561,7 +41673,7 @@
         <v>2089</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="28"/>
@@ -41604,7 +41716,7 @@
         <v>2089</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="28"/>
@@ -41647,7 +41759,7 @@
         <v>2089</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="28"/>
@@ -41690,7 +41802,7 @@
         <v>2089</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="28"/>
@@ -41733,7 +41845,7 @@
         <v>2089</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="28"/>
@@ -41776,7 +41888,7 @@
         <v>2089</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="28"/>
@@ -41819,7 +41931,7 @@
         <v>2089</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="28"/>
@@ -41862,7 +41974,7 @@
         <v>2089</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="28"/>
@@ -41905,7 +42017,7 @@
         <v>2089</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="28"/>
@@ -41948,7 +42060,7 @@
         <v>2089</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="28"/>
@@ -41991,7 +42103,7 @@
         <v>2089</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="28"/>
@@ -42034,7 +42146,7 @@
         <v>2089</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="28"/>
@@ -42077,7 +42189,7 @@
         <v>2089</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="28"/>
@@ -42120,7 +42232,7 @@
         <v>2089</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="28"/>
@@ -42163,7 +42275,7 @@
         <v>2089</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="28"/>
@@ -42206,7 +42318,7 @@
         <v>2089</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="28"/>
@@ -42229,13 +42341,13 @@
         <v>1312</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>1318</v>
@@ -42244,10 +42356,10 @@
         <v>1319</v>
       </c>
       <c r="R58" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42268,13 +42380,13 @@
         <v>1312</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>1327</v>
@@ -42283,10 +42395,10 @@
         <v>1328</v>
       </c>
       <c r="R59" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42307,13 +42419,13 @@
         <v>1312</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>1332</v>
@@ -42322,10 +42434,10 @@
         <v>1333</v>
       </c>
       <c r="R60" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42346,13 +42458,13 @@
         <v>1312</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>1313</v>
@@ -42361,10 +42473,10 @@
         <v>1314</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42385,13 +42497,13 @@
         <v>1312</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>1341</v>
@@ -42400,10 +42512,10 @@
         <v>1342</v>
       </c>
       <c r="R62" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42424,13 +42536,13 @@
         <v>1312</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>1336</v>
@@ -42439,10 +42551,10 @@
         <v>1337</v>
       </c>
       <c r="R63" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42463,13 +42575,13 @@
         <v>1312</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>1323</v>
@@ -42478,10 +42590,10 @@
         <v>1324</v>
       </c>
       <c r="R64" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42502,13 +42614,13 @@
         <v>1312</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>1350</v>
@@ -42517,10 +42629,10 @@
         <v>1351</v>
       </c>
       <c r="R65" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42541,13 +42653,13 @@
         <v>1312</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>1345</v>
@@ -42556,10 +42668,10 @@
         <v>1346</v>
       </c>
       <c r="R66" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42601,7 +42713,7 @@
         <v>2089</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="28"/>
@@ -42645,7 +42757,7 @@
         <v>2089</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="28"/>
@@ -42689,7 +42801,7 @@
         <v>2089</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="28"/>
@@ -42733,7 +42845,7 @@
         <v>2089</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="28"/>
@@ -42777,7 +42889,7 @@
         <v>2089</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="28"/>
@@ -42821,7 +42933,7 @@
         <v>2089</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="28"/>
@@ -42865,7 +42977,7 @@
         <v>2089</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="28"/>
@@ -42907,14 +43019,14 @@
         <v>2089</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42954,14 +43066,14 @@
         <v>2089</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43001,14 +43113,14 @@
         <v>2089</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43048,14 +43160,14 @@
         <v>2089</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43095,14 +43207,14 @@
         <v>2089</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43142,14 +43254,14 @@
         <v>2089</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43189,14 +43301,14 @@
         <v>2089</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43236,14 +43348,14 @@
         <v>2089</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43283,14 +43395,14 @@
         <v>2089</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43330,14 +43442,14 @@
         <v>2089</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43377,14 +43489,14 @@
         <v>2089</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43424,14 +43536,14 @@
         <v>2089</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S85" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43471,14 +43583,14 @@
         <v>2089</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43518,14 +43630,14 @@
         <v>2089</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43565,14 +43677,14 @@
         <v>2089</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43612,14 +43724,14 @@
         <v>2089</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43659,14 +43771,14 @@
         <v>2089</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S90" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43706,14 +43818,14 @@
         <v>2089</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43753,14 +43865,14 @@
         <v>2089</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S92" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43800,14 +43912,14 @@
         <v>2089</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S93" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43847,14 +43959,14 @@
         <v>2089</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S94" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43894,14 +44006,14 @@
         <v>2089</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S95" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43941,14 +44053,14 @@
         <v>2089</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S96" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43988,14 +44100,14 @@
         <v>2089</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q97" s="4"/>
       <c r="R97" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44035,14 +44147,14 @@
         <v>2089</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44082,14 +44194,14 @@
         <v>2089</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44129,14 +44241,14 @@
         <v>2089</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q100" s="4"/>
       <c r="R100" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44176,14 +44288,14 @@
         <v>2089</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q101" s="4"/>
       <c r="R101" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44223,14 +44335,14 @@
         <v>2089</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44270,14 +44382,14 @@
         <v>2089</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44317,14 +44429,14 @@
         <v>2089</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44364,14 +44476,14 @@
         <v>2089</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44411,14 +44523,14 @@
         <v>2089</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44458,14 +44570,14 @@
         <v>2089</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44505,14 +44617,14 @@
         <v>2089</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44552,14 +44664,14 @@
         <v>2089</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44599,14 +44711,14 @@
         <v>2089</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q110" s="4"/>
       <c r="R110" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44646,14 +44758,14 @@
         <v>2089</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q111" s="4"/>
       <c r="R111" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44693,14 +44805,14 @@
         <v>2089</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q112" s="4"/>
       <c r="R112" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44740,14 +44852,14 @@
         <v>2089</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q113" s="4"/>
       <c r="R113" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44787,14 +44899,14 @@
         <v>2089</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q114" s="4"/>
       <c r="R114" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44834,14 +44946,14 @@
         <v>2089</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q115" s="4"/>
       <c r="R115" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44881,14 +44993,14 @@
         <v>2089</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q116" s="4"/>
       <c r="R116" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44928,14 +45040,14 @@
         <v>2089</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44975,14 +45087,14 @@
         <v>2089</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45022,14 +45134,14 @@
         <v>2089</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45069,14 +45181,14 @@
         <v>2089</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45116,14 +45228,14 @@
         <v>2089</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45163,14 +45275,14 @@
         <v>2089</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45210,14 +45322,14 @@
         <v>2089</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S123" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45257,14 +45369,14 @@
         <v>2089</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45304,14 +45416,14 @@
         <v>2089</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S125" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45338,10 +45450,10 @@
         <v>1561</v>
       </c>
       <c r="R126" s="28" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45362,13 +45474,13 @@
         <v>1626</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -45383,7 +45495,7 @@
         <v>2089</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q127" s="4"/>
       <c r="R127" s="28"/>
@@ -45406,13 +45518,13 @@
         <v>1626</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -45427,7 +45539,7 @@
         <v>2089</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q128" s="4"/>
       <c r="R128" s="28"/>
@@ -45450,13 +45562,13 @@
         <v>1626</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -45471,7 +45583,7 @@
         <v>2089</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q129" s="4"/>
       <c r="R129" s="28"/>
@@ -45494,13 +45606,13 @@
         <v>1626</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -45515,7 +45627,7 @@
         <v>2089</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="28"/>
@@ -45538,13 +45650,13 @@
         <v>1626</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -45559,7 +45671,7 @@
         <v>2089</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q131" s="4"/>
       <c r="R131" s="28"/>
@@ -45582,13 +45694,13 @@
         <v>1626</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -45603,7 +45715,7 @@
         <v>2089</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q132" s="4"/>
       <c r="R132" s="28"/>
@@ -45626,13 +45738,13 @@
         <v>1626</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -45647,7 +45759,7 @@
         <v>2089</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q133" s="4"/>
       <c r="R133" s="28"/>
@@ -45670,13 +45782,13 @@
         <v>1626</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -45691,7 +45803,7 @@
         <v>2089</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q134" s="4"/>
       <c r="R134" s="28"/>
@@ -45714,13 +45826,13 @@
         <v>1626</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -45735,7 +45847,7 @@
         <v>2089</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q135" s="4"/>
       <c r="R135" s="28"/>
@@ -45773,11 +45885,11 @@
         <v>2089</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q136" s="4"/>
       <c r="R136" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45798,13 +45910,13 @@
         <v>1648</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -45819,14 +45931,14 @@
         <v>2089</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q137" s="4"/>
       <c r="R137" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S137" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45847,13 +45959,13 @@
         <v>1648</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
@@ -45868,14 +45980,14 @@
         <v>2089</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S138" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45896,13 +46008,13 @@
         <v>1648</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
@@ -45917,14 +46029,14 @@
         <v>2089</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q139" s="4"/>
       <c r="R139" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45945,13 +46057,13 @@
         <v>1648</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -45966,14 +46078,14 @@
         <v>2089</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q140" s="4"/>
       <c r="R140" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S140" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45994,13 +46106,13 @@
         <v>1648</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -46015,14 +46127,14 @@
         <v>2089</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q141" s="4"/>
       <c r="R141" s="28" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="S141" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46042,13 +46154,13 @@
         <v>1677</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -46063,7 +46175,7 @@
         <v>2089</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q142" s="4"/>
       <c r="R142" s="28"/>
@@ -46088,13 +46200,13 @@
         <v>1677</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -46109,7 +46221,7 @@
         <v>2089</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q143" s="4"/>
       <c r="R143" s="28"/>
@@ -46134,13 +46246,13 @@
         <v>1677</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -46155,7 +46267,7 @@
         <v>2089</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q144" s="4"/>
       <c r="R144" s="28"/>
@@ -46180,13 +46292,13 @@
         <v>1677</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -46201,7 +46313,7 @@
         <v>2089</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q145" s="4"/>
       <c r="R145" s="28"/>
@@ -46226,13 +46338,13 @@
         <v>1677</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -46247,7 +46359,7 @@
         <v>2089</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q146" s="4"/>
       <c r="R146" s="28"/>
@@ -46272,13 +46384,13 @@
         <v>1677</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -46293,7 +46405,7 @@
         <v>2089</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q147" s="4"/>
       <c r="R147" s="28"/>
@@ -46318,13 +46430,13 @@
         <v>1677</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -46339,7 +46451,7 @@
         <v>2089</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="28"/>
@@ -46364,13 +46476,13 @@
         <v>1677</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -46385,7 +46497,7 @@
         <v>2089</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q149" s="4"/>
       <c r="R149" s="28"/>
@@ -46410,13 +46522,13 @@
         <v>1677</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -46431,7 +46543,7 @@
         <v>2089</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q150" s="4"/>
       <c r="R150" s="28"/>
@@ -46456,13 +46568,13 @@
         <v>1677</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -46477,7 +46589,7 @@
         <v>2089</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q151" s="4"/>
       <c r="R151" s="28"/>
@@ -46502,13 +46614,13 @@
         <v>1677</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -46523,7 +46635,7 @@
         <v>2089</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q152" s="4"/>
       <c r="R152" s="28"/>
@@ -46539,19 +46651,19 @@
         <v>1754</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M153" s="0" t="n">
         <v>8.22</v>
@@ -46563,7 +46675,7 @@
         <v>2089</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R153" s="28"/>
     </row>
@@ -46578,19 +46690,19 @@
         <v>1759</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M154" s="0" t="n">
         <v>8.17</v>
@@ -46602,7 +46714,7 @@
         <v>2089</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R154" s="28"/>
     </row>
@@ -46617,19 +46729,19 @@
         <v>1762</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M155" s="0" t="n">
         <v>8.22</v>
@@ -46641,7 +46753,7 @@
         <v>2089</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R155" s="28"/>
     </row>
@@ -46656,19 +46768,19 @@
         <v>1764</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M156" s="0" t="n">
         <v>8.2</v>
@@ -46680,7 +46792,7 @@
         <v>2089</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R156" s="28"/>
     </row>
@@ -46695,19 +46807,19 @@
         <v>1766</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M157" s="0" t="n">
         <v>8.23</v>
@@ -46719,7 +46831,7 @@
         <v>2089</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R157" s="28"/>
     </row>
@@ -46734,19 +46846,19 @@
         <v>1768</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M158" s="0" t="n">
         <v>8.22</v>
@@ -46758,7 +46870,7 @@
         <v>2089</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R158" s="28"/>
     </row>
@@ -46773,19 +46885,19 @@
         <v>1770</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M159" s="0" t="n">
         <v>9.1</v>
@@ -46797,7 +46909,7 @@
         <v>2089</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R159" s="28"/>
     </row>
@@ -46812,19 +46924,19 @@
         <v>1772</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M160" s="0" t="n">
         <v>8</v>
@@ -46836,7 +46948,7 @@
         <v>2089</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R160" s="28"/>
     </row>
@@ -46851,19 +46963,19 @@
         <v>1773</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M161" s="0" t="n">
         <v>8.1</v>
@@ -46875,7 +46987,7 @@
         <v>2089</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R161" s="28"/>
     </row>
@@ -46890,19 +47002,19 @@
         <v>1776</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M162" s="0" t="n">
         <v>8.22</v>
@@ -46914,7 +47026,7 @@
         <v>2089</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R162" s="28"/>
     </row>
@@ -46942,10 +47054,10 @@
         <v>1883</v>
       </c>
       <c r="R163" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S163" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46972,10 +47084,10 @@
         <v>1887</v>
       </c>
       <c r="R164" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S164" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47002,10 +47114,10 @@
         <v>1890</v>
       </c>
       <c r="R165" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S165" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47026,13 +47138,13 @@
         <v>1954</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -47047,7 +47159,7 @@
         <v>2089</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q166" s="4"/>
       <c r="R166" s="28"/>
@@ -47070,13 +47182,13 @@
         <v>1954</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -47091,7 +47203,7 @@
         <v>2089</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q167" s="4"/>
       <c r="R167" s="28"/>
@@ -47114,13 +47226,13 @@
         <v>1954</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -47135,7 +47247,7 @@
         <v>2089</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q168" s="4"/>
       <c r="R168" s="28"/>
@@ -47158,13 +47270,13 @@
         <v>1954</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -47179,7 +47291,7 @@
         <v>2089</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q169" s="4"/>
       <c r="R169" s="28"/>
@@ -47202,13 +47314,13 @@
         <v>1954</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -47223,7 +47335,7 @@
         <v>2089</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q170" s="4"/>
       <c r="R170" s="28"/>
@@ -47246,13 +47358,13 @@
         <v>1954</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
@@ -47267,7 +47379,7 @@
         <v>2089</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q171" s="4"/>
       <c r="R171" s="28"/>
@@ -47290,13 +47402,13 @@
         <v>1954</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -47311,7 +47423,7 @@
         <v>2089</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q172" s="4"/>
       <c r="R172" s="28"/>
@@ -47334,13 +47446,13 @@
         <v>1954</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -47355,7 +47467,7 @@
         <v>2089</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q173" s="4"/>
       <c r="R173" s="28"/>
@@ -47378,13 +47490,13 @@
         <v>1967</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -47399,7 +47511,7 @@
         <v>2089</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q174" s="4"/>
       <c r="R174" s="28"/>
@@ -47422,13 +47534,13 @@
         <v>1967</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -47443,7 +47555,7 @@
         <v>2089</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q175" s="4"/>
       <c r="R175" s="28"/>
@@ -47466,13 +47578,13 @@
         <v>1967</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -47487,7 +47599,7 @@
         <v>2089</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q176" s="4"/>
       <c r="R176" s="28"/>
@@ -47510,13 +47622,13 @@
         <v>1967</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -47531,7 +47643,7 @@
         <v>2089</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q177" s="4"/>
       <c r="R177" s="28"/>
@@ -47554,13 +47666,13 @@
         <v>1967</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -47575,7 +47687,7 @@
         <v>2089</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q178" s="4"/>
       <c r="R178" s="28"/>
@@ -47598,13 +47710,13 @@
         <v>1967</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -47619,7 +47731,7 @@
         <v>2089</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q179" s="4"/>
       <c r="R179" s="28"/>
@@ -47642,13 +47754,13 @@
         <v>1967</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -47663,7 +47775,7 @@
         <v>2089</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q180" s="4"/>
       <c r="R180" s="28"/>
@@ -47686,13 +47798,13 @@
         <v>1967</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
@@ -47707,7 +47819,7 @@
         <v>2089</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q181" s="4"/>
       <c r="R181" s="28"/>
@@ -47730,13 +47842,13 @@
         <v>1967</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
@@ -47751,7 +47863,7 @@
         <v>2089</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q182" s="4"/>
       <c r="R182" s="28"/>
@@ -47774,13 +47886,13 @@
         <v>1967</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
@@ -47795,7 +47907,7 @@
         <v>2089</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q183" s="4"/>
       <c r="R183" s="28"/>
@@ -47818,13 +47930,13 @@
         <v>1967</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
@@ -47839,7 +47951,7 @@
         <v>2089</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q184" s="4"/>
       <c r="R184" s="28"/>
@@ -47862,13 +47974,13 @@
         <v>1967</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
@@ -47883,7 +47995,7 @@
         <v>2089</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q185" s="4"/>
       <c r="R185" s="28"/>
@@ -47906,13 +48018,13 @@
         <v>1967</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
@@ -47927,7 +48039,7 @@
         <v>2089</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q186" s="4"/>
       <c r="R186" s="28"/>
@@ -47950,13 +48062,13 @@
         <v>1967</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -47971,7 +48083,7 @@
         <v>2089</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q187" s="4"/>
       <c r="R187" s="28"/>
@@ -47993,10 +48105,10 @@
         <v>2083</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="M188" s="0" t="n">
         <v>9.33</v>
@@ -48005,10 +48117,10 @@
         <v>9.45</v>
       </c>
       <c r="R188" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S188" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48028,13 +48140,13 @@
         <v>2119</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
@@ -48049,7 +48161,7 @@
         <v>2089</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q189" s="4"/>
       <c r="R189" s="28"/>
@@ -48071,13 +48183,13 @@
         <v>2119</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
@@ -48092,7 +48204,7 @@
         <v>2089</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q190" s="4"/>
       <c r="R190" s="28"/>
@@ -48115,13 +48227,13 @@
         <v>1939</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
@@ -48136,13 +48248,13 @@
         <v>2089</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R191" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S191" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48163,13 +48275,13 @@
         <v>1939</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -48184,13 +48296,13 @@
         <v>2089</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R192" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S192" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48211,13 +48323,13 @@
         <v>1939</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
@@ -48232,13 +48344,13 @@
         <v>2089</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R193" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S193" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48259,13 +48371,13 @@
         <v>1939</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
@@ -48280,13 +48392,13 @@
         <v>2089</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R194" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S194" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48307,13 +48419,13 @@
         <v>1939</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
@@ -48328,18 +48440,18 @@
         <v>2089</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R195" s="28" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="S195" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S199" s="0" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
@@ -48361,7 +48473,7 @@
   </sheetPr>
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G168" activeCellId="0" sqref="G168"/>
     </sheetView>
   </sheetViews>
@@ -48387,7 +48499,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2124</v>
@@ -48405,10 +48517,10 @@
         <v>2129</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48437,7 +48549,7 @@
         <v>2089</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48466,7 +48578,7 @@
         <v>2089</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48495,7 +48607,7 @@
         <v>2089</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48524,7 +48636,7 @@
         <v>2089</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48553,7 +48665,7 @@
         <v>2089</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48582,7 +48694,7 @@
         <v>2089</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48611,7 +48723,7 @@
         <v>2089</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48640,7 +48752,7 @@
         <v>2089</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48669,7 +48781,7 @@
         <v>2089</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48698,7 +48810,7 @@
         <v>2089</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48736,7 +48848,7 @@
         <v>2089</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48774,7 +48886,7 @@
         <v>2089</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -48815,7 +48927,7 @@
         <v>2089</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -48856,7 +48968,7 @@
         <v>2089</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -48897,7 +49009,7 @@
         <v>2089</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -48938,7 +49050,7 @@
         <v>2089</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -48979,7 +49091,7 @@
         <v>2089</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -49020,7 +49132,7 @@
         <v>2089</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49058,7 +49170,7 @@
         <v>2089</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49096,7 +49208,7 @@
         <v>2089</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49134,7 +49246,7 @@
         <v>2089</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49172,7 +49284,7 @@
         <v>2089</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -49213,7 +49325,7 @@
         <v>2089</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49251,7 +49363,7 @@
         <v>2089</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49289,7 +49401,7 @@
         <v>2089</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49327,7 +49439,7 @@
         <v>2089</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49365,7 +49477,7 @@
         <v>2089</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49403,7 +49515,7 @@
         <v>2089</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49441,7 +49553,7 @@
         <v>2089</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49479,7 +49591,7 @@
         <v>2089</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49517,7 +49629,7 @@
         <v>2089</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49555,7 +49667,7 @@
         <v>2089</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49593,7 +49705,7 @@
         <v>2089</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49631,7 +49743,7 @@
         <v>2089</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49669,7 +49781,7 @@
         <v>2089</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49707,7 +49819,7 @@
         <v>2089</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49745,7 +49857,7 @@
         <v>2089</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49783,7 +49895,7 @@
         <v>2089</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49821,7 +49933,7 @@
         <v>2089</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49859,7 +49971,7 @@
         <v>2089</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49897,7 +50009,7 @@
         <v>2089</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49935,7 +50047,7 @@
         <v>2089</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49973,7 +50085,7 @@
         <v>2089</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50011,7 +50123,7 @@
         <v>2089</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50049,7 +50161,7 @@
         <v>2089</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50087,7 +50199,7 @@
         <v>2089</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50125,7 +50237,7 @@
         <v>2089</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50163,7 +50275,7 @@
         <v>2089</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50201,7 +50313,7 @@
         <v>2089</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50239,7 +50351,7 @@
         <v>2089</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50277,7 +50389,7 @@
         <v>2089</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50315,7 +50427,7 @@
         <v>2089</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50353,7 +50465,7 @@
         <v>2089</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50391,7 +50503,7 @@
         <v>2089</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50429,7 +50541,7 @@
         <v>2089</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50467,7 +50579,7 @@
         <v>2089</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50487,13 +50599,13 @@
         <v>1312</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>1313</v>
@@ -50505,7 +50617,7 @@
         <v>2089</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50525,13 +50637,13 @@
         <v>1312</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>1318</v>
@@ -50543,7 +50655,7 @@
         <v>2089</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50563,13 +50675,13 @@
         <v>1312</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>1323</v>
@@ -50581,7 +50693,7 @@
         <v>2089</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50601,13 +50713,13 @@
         <v>1312</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>1327</v>
@@ -50619,7 +50731,7 @@
         <v>2089</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50639,13 +50751,13 @@
         <v>1312</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I62" s="24" t="s">
         <v>1332</v>
@@ -50657,7 +50769,7 @@
         <v>2089</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50677,13 +50789,13 @@
         <v>1312</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>1336</v>
@@ -50695,7 +50807,7 @@
         <v>2089</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50715,13 +50827,13 @@
         <v>1312</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I64" s="24" t="s">
         <v>1341</v>
@@ -50733,7 +50845,7 @@
         <v>2089</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50753,13 +50865,13 @@
         <v>1312</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I65" s="24" t="s">
         <v>1345</v>
@@ -50771,7 +50883,7 @@
         <v>2089</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50791,13 +50903,13 @@
         <v>1312</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="I66" s="24" t="s">
         <v>1350</v>
@@ -50809,7 +50921,7 @@
         <v>2089</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50838,7 +50950,7 @@
         <v>2089</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50867,7 +50979,7 @@
         <v>2089</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50896,7 +51008,7 @@
         <v>2089</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50925,7 +51037,7 @@
         <v>2089</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50954,7 +51066,7 @@
         <v>2089</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50983,7 +51095,7 @@
         <v>2089</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51012,7 +51124,7 @@
         <v>2089</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51041,7 +51153,7 @@
         <v>2089</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51070,7 +51182,7 @@
         <v>2089</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51099,7 +51211,7 @@
         <v>2089</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51128,7 +51240,7 @@
         <v>2089</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51157,7 +51269,7 @@
         <v>2089</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51189,7 +51301,7 @@
         <v>2089</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51221,7 +51333,7 @@
         <v>2089</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51253,7 +51365,7 @@
         <v>2089</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51285,7 +51397,7 @@
         <v>2089</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51317,7 +51429,7 @@
         <v>2089</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51349,7 +51461,7 @@
         <v>2089</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51381,7 +51493,7 @@
         <v>2089</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51413,7 +51525,7 @@
         <v>2089</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51445,7 +51557,7 @@
         <v>2089</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51477,7 +51589,7 @@
         <v>2089</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51509,7 +51621,7 @@
         <v>2089</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51541,7 +51653,7 @@
         <v>2089</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51573,7 +51685,7 @@
         <v>2089</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51605,7 +51717,7 @@
         <v>2089</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51636,7 +51748,7 @@
         <v>2089</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51668,7 +51780,7 @@
         <v>2089</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51697,7 +51809,7 @@
         <v>2089</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51726,7 +51838,7 @@
         <v>2089</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51755,7 +51867,7 @@
         <v>2089</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51784,7 +51896,7 @@
         <v>2089</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51813,7 +51925,7 @@
         <v>2089</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51842,7 +51954,7 @@
         <v>2089</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51871,7 +51983,7 @@
         <v>2089</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51900,7 +52012,7 @@
         <v>2089</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51929,7 +52041,7 @@
         <v>2089</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51958,7 +52070,7 @@
         <v>2089</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51987,7 +52099,7 @@
         <v>2089</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52016,7 +52128,7 @@
         <v>2089</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52045,7 +52157,7 @@
         <v>2089</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52074,7 +52186,7 @@
         <v>2089</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52103,7 +52215,7 @@
         <v>2089</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52132,7 +52244,7 @@
         <v>2089</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52161,7 +52273,7 @@
         <v>2089</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52190,7 +52302,7 @@
         <v>2089</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52219,7 +52331,7 @@
         <v>2089</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52248,7 +52360,7 @@
         <v>2089</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52277,7 +52389,7 @@
         <v>2089</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52306,7 +52418,7 @@
         <v>2089</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52335,7 +52447,7 @@
         <v>2089</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52364,7 +52476,7 @@
         <v>2089</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52393,7 +52505,7 @@
         <v>2089</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52422,7 +52534,7 @@
         <v>2089</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52451,7 +52563,7 @@
         <v>2089</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52480,7 +52592,7 @@
         <v>2089</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52509,7 +52621,7 @@
         <v>2089</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52538,7 +52650,7 @@
         <v>2089</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52567,7 +52679,7 @@
         <v>2089</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52596,7 +52708,7 @@
         <v>2089</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52616,13 +52728,13 @@
         <v>1626</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I127" s="20" t="n">
         <v>10.25816667</v>
@@ -52634,7 +52746,7 @@
         <v>2089</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52654,13 +52766,13 @@
         <v>1626</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I128" s="20" t="n">
         <v>9.547</v>
@@ -52672,7 +52784,7 @@
         <v>2089</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52692,13 +52804,13 @@
         <v>1626</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I129" s="20" t="n">
         <v>10.395</v>
@@ -52710,7 +52822,7 @@
         <v>2089</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52730,13 +52842,13 @@
         <v>1626</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I130" s="20" t="n">
         <v>8.347166667</v>
@@ -52748,7 +52860,7 @@
         <v>2089</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52768,13 +52880,13 @@
         <v>1626</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I131" s="20" t="n">
         <v>7.122666667</v>
@@ -52786,7 +52898,7 @@
         <v>2089</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52806,13 +52918,13 @@
         <v>1626</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I132" s="20" t="n">
         <v>10.61933333</v>
@@ -52824,7 +52936,7 @@
         <v>2089</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52844,13 +52956,13 @@
         <v>1626</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I133" s="20" t="n">
         <v>7.9685</v>
@@ -52862,7 +52974,7 @@
         <v>2089</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52882,13 +52994,13 @@
         <v>1626</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I134" s="20" t="n">
         <v>7.674166667</v>
@@ -52900,7 +53012,7 @@
         <v>2089</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52920,13 +53032,13 @@
         <v>1626</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I135" s="20" t="n">
         <v>6.4495</v>
@@ -52938,7 +53050,7 @@
         <v>2089</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52967,7 +53079,7 @@
         <v>2089</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52996,7 +53108,7 @@
         <v>2089</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53025,7 +53137,7 @@
         <v>2089</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53054,7 +53166,7 @@
         <v>2089</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53083,7 +53195,7 @@
         <v>2089</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53112,7 +53224,7 @@
         <v>2089</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53132,13 +53244,13 @@
         <v>1677</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I142" s="24" t="s">
         <v>1678</v>
@@ -53150,7 +53262,7 @@
         <v>2089</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53170,13 +53282,13 @@
         <v>1677</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I143" s="24" t="s">
         <v>1681</v>
@@ -53188,7 +53300,7 @@
         <v>2089</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53208,13 +53320,13 @@
         <v>1677</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I144" s="24" t="s">
         <v>1684</v>
@@ -53226,7 +53338,7 @@
         <v>2089</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53246,13 +53358,13 @@
         <v>1677</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I145" s="24" t="s">
         <v>1687</v>
@@ -53264,7 +53376,7 @@
         <v>2089</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53284,13 +53396,13 @@
         <v>1677</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I146" s="24" t="s">
         <v>1691</v>
@@ -53302,7 +53414,7 @@
         <v>2089</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53322,13 +53434,13 @@
         <v>1677</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I147" s="24" t="s">
         <v>1695</v>
@@ -53340,7 +53452,7 @@
         <v>2089</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53360,13 +53472,13 @@
         <v>1677</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I148" s="24" t="s">
         <v>1698</v>
@@ -53378,7 +53490,7 @@
         <v>2089</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53398,13 +53510,13 @@
         <v>1677</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I149" s="24" t="s">
         <v>154</v>
@@ -53416,7 +53528,7 @@
         <v>2089</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53436,13 +53548,13 @@
         <v>1677</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I150" s="24" t="s">
         <v>1703</v>
@@ -53454,7 +53566,7 @@
         <v>2089</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53474,13 +53586,13 @@
         <v>1677</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I151" s="24" t="s">
         <v>1707</v>
@@ -53492,7 +53604,7 @@
         <v>2089</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53512,13 +53624,13 @@
         <v>1677</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="I152" s="24" t="s">
         <v>1710</v>
@@ -53530,7 +53642,7 @@
         <v>2089</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53559,7 +53671,7 @@
         <v>2089</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53588,7 +53700,7 @@
         <v>2089</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53617,7 +53729,7 @@
         <v>2089</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53646,7 +53758,7 @@
         <v>2089</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53675,7 +53787,7 @@
         <v>2089</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53704,7 +53816,7 @@
         <v>2089</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53733,7 +53845,7 @@
         <v>2089</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53762,7 +53874,7 @@
         <v>2089</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53791,7 +53903,7 @@
         <v>2089</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53820,7 +53932,7 @@
         <v>2089</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53849,7 +53961,7 @@
         <v>2089</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53878,7 +53990,7 @@
         <v>2089</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53907,7 +54019,7 @@
         <v>2089</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53936,7 +54048,7 @@
         <v>2089</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53965,7 +54077,7 @@
         <v>2089</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53994,7 +54106,7 @@
         <v>2089</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54023,7 +54135,7 @@
         <v>2089</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54052,7 +54164,7 @@
         <v>2089</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54081,7 +54193,7 @@
         <v>2089</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54110,7 +54222,7 @@
         <v>2089</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54139,7 +54251,7 @@
         <v>2089</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54168,7 +54280,7 @@
         <v>2089</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54197,7 +54309,7 @@
         <v>2089</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54226,7 +54338,7 @@
         <v>2089</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54255,7 +54367,7 @@
         <v>2089</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54284,7 +54396,7 @@
         <v>2089</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54313,7 +54425,7 @@
         <v>2089</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54342,7 +54454,7 @@
         <v>2089</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54371,7 +54483,7 @@
         <v>2089</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54400,7 +54512,7 @@
         <v>2089</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54429,7 +54541,7 @@
         <v>2089</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54458,7 +54570,7 @@
         <v>2089</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54487,7 +54599,7 @@
         <v>2089</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54516,7 +54628,7 @@
         <v>2089</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54545,7 +54657,7 @@
         <v>2089</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54574,7 +54686,7 @@
         <v>2089</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54603,7 +54715,7 @@
         <v>2089</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54632,7 +54744,7 @@
         <v>2089</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54661,7 +54773,7 @@
         <v>2089</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54692,7 +54804,7 @@
         <v>2089</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54721,7 +54833,7 @@
         <v>2089</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54741,13 +54853,13 @@
         <v>2119</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>8.883947222</v>
@@ -54759,7 +54871,7 @@
         <v>2089</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54779,13 +54891,13 @@
         <v>2119</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>8.973844444</v>
@@ -54797,7 +54909,7 @@
         <v>2089</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
   </sheetData>
@@ -54819,7 +54931,7 @@
   </sheetPr>
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E164" activeCellId="0" sqref="E164"/>
     </sheetView>
   </sheetViews>

--- a/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
+++ b/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6835,7 +6836,7 @@
     <t xml:space="preserve">Belenikegny</t>
   </si>
   <si>
-    <t xml:space="preserve">2009 – 2011</t>
+    <t xml:space="preserve">2009-2011</t>
   </si>
   <si>
     <t xml:space="preserve">Bozokin</t>
@@ -28328,8 +28329,8 @@
   </sheetPr>
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
+++ b/Reservoir_Layer/Data/Mastomys_natalensis_presences.xlsx
@@ -5,41 +5,42 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="M. natalensis" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Raw_M_natalensis_presences" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Cleaned_M_natalensis_presences" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'M. natalensis'!$A$1:$J$695</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Raw_M_natalensis_presences!$A$1:$J$695</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">summary!$A$1:$C$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_64771776_FB6F_11DE_9C8D_000D93C12944_.wvu.PrintArea" vbProcedure="false">summary!$A$1:$C$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="Z_64771776_FB6F_11DE_9C8D_000D93C12944_.wvu.PrintArea" vbProcedure="false">'M. natalensis'!$A$1:$J$695</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="Z_64771776_FB6F_11DE_9C8D_000D93C12944_.wvu.PrintTitles" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'M. natalensis'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Z_64771776_FB6F_11DE_9C8D_000D93C12944_.wvu.PrintArea" vbProcedure="false">Raw_M_natalensis_presences!$A$1:$J$695</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Z_64771776_FB6F_11DE_9C8D_000D93C12944_.wvu.PrintTitles" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Raw_M_natalensis_presences!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -7722,7 +7723,7 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D718" activeCellId="0" sqref="D718"/>
     </sheetView>
   </sheetViews>
@@ -28329,7 +28330,7 @@
   </sheetPr>
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
